--- a/codelists/Triple_SNOMED.xlsx
+++ b/codelists/Triple_SNOMED.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,23 +360,13 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>VPID</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>APID</t>
+          <t>Medcode</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>39134511000001107</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
           <t>39134711000001102</t>
         </is>
       </c>
@@ -384,11 +374,6 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>34955111000001103</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
           <t>34952211000001104</t>
         </is>
       </c>
@@ -396,11 +381,6 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>40766811000001104</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
           <t>40752211000001109</t>
         </is>
       </c>
@@ -408,11 +388,6 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>34683311000001106</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
           <t>34681611000001100</t>
         </is>
       </c>
@@ -420,11 +395,6 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>40087411000001104</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
           <t>39993311000001105</t>
         </is>
       </c>
@@ -432,12 +402,49 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>39327311000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>39134511000001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>34955111000001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>40766811000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>34683311000001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>40087411000001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>39343511000001103</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>39327311000001104</t>
         </is>
       </c>
     </row>
